--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090569.222288338</v>
+        <v>1119413.533043065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>96.15030530189827</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984475</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>26.94389492650981</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229206</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255733</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044664</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>353.5759586385877</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>32.35613620990604</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1266,7 +1268,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888674</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044664</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.39108932486009</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>179.1388077377611</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>141.4106407312801</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>200.9124899777286</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.669905662784863</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>22.9926801761842</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>101.7177065691257</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.82098103446889</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2363,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>53.87467807705866</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>52.52527498097923</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>49.27368130700317</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>53.87467807705912</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.0555388225926</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>174.9442930587127</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>255.0616403935769</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.32232414915258</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4526127311943</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.52687838733151</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>73.99968340282042</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>37.2908171462483</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.440065804380628</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>57.74928671088544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>123.0155303306638</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3466,31 +3468,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>54.47555601903409</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>28.04883337012784</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>61.54863046645561</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.8860385675336</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>181.7508773607588</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>234.4585521898009</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>236.7139500600956</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>118.0867093812787</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>209.5249358523171</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>43.31785343913992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2150.18672632798</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2150.18672632798</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2150.18672632798</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.18672632798</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.18672632798</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447094</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066822</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999317</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168748</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036443</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036443</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748107</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487027</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511216</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G7" t="n">
         <v>393.6767897220518</v>
@@ -4723,52 +4725,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.714918859356</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.714918859356</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4844,10 +4846,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>903.5661947296837</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.109828622464</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>546.109828622464</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>546.109828622464</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>546.109828622464</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>546.109828622464</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2516.200800374019</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5142,7 +5144,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G13" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G14" t="n">
-        <v>368.5830699172734</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>196.7820128620615</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5363,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2107.607341885688</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5516,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5552,13 +5554,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2494.20718194981</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2494.20718194981</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>2494.20718194981</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5594,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5707,16 +5709,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2107.607341885688</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C20" t="n">
         <v>2107.607341885688</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2673.924161547329</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2497.746673861499</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2497.746673861499</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2497.746673861499</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2497.746673861499</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X20" t="n">
-        <v>2497.746673861499</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.607341885688</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>2125.708246782785</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>2125.708246782785</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
         <v>2022.963088632153</v>
@@ -5941,19 +5943,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253591</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D23" t="n">
         <v>439.7312344186087</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="V23" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W23" t="n">
-        <v>1563.476704221264</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X23" t="n">
-        <v>1190.010945960184</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y23" t="n">
-        <v>1190.010945960184</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="24">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
         <v>53.94298182036445</v>
@@ -6166,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>204.0596212327002</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="W25" t="n">
-        <v>204.0596212327002</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="X25" t="n">
-        <v>204.0596212327002</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.8716139843725</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C26" t="n">
-        <v>430.9090970439608</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>430.9090970439608</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>430.9090970439608</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6224,13 +6226,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X26" t="n">
-        <v>1190.010945960184</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y26" t="n">
-        <v>799.8716139843725</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="27">
@@ -6303,10 +6305,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
         <v>670.8219208598713</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2515.500626187983</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C28" t="n">
-        <v>2346.564443260076</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>2346.564443260076</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>2346.564443260076</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2177.564642998409</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018223</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>823.312677031598</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C29" t="n">
-        <v>565.6746564320254</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="U29" t="n">
-        <v>2267.209817970484</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="V29" t="n">
-        <v>1936.146930626914</v>
+        <v>2325.356583321973</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.3782753568</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.91251709572</v>
+        <v>1599.122169790779</v>
       </c>
       <c r="Y29" t="n">
-        <v>1209.91251709572</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.9658229629849</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036446</v>
@@ -6652,19 +6654,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>210.9658229629849</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.9658229629849</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>534.603677789272</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C32" t="n">
-        <v>534.603677789272</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2622.401936065879</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2368.64015070397</v>
+        <v>2659.481598951305</v>
       </c>
       <c r="V32" t="n">
-        <v>2037.577263360399</v>
+        <v>2328.418711607735</v>
       </c>
       <c r="W32" t="n">
-        <v>1684.808608090285</v>
+        <v>2328.418711607735</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.342849829206</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y32" t="n">
-        <v>921.2035178533938</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.4805193761945</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>377.5443364482876</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>227.4276970359519</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>227.4276970359519</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>227.4276970359519</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>58.42789677428428</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1327.013560149308</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C35" t="n">
-        <v>1327.013560149308</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6965,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2572.890979573107</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656313</v>
+        <v>2319.129194211199</v>
       </c>
       <c r="V35" t="n">
-        <v>2443.387305656313</v>
+        <v>1988.066306867628</v>
       </c>
       <c r="W35" t="n">
-        <v>2090.618650386199</v>
+        <v>1635.297651597514</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.152892125119</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1327.013560149308</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
         <v>2206.839139259579</v>
@@ -7114,31 +7116,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812335</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>2442.464602812335</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>2214.475051914318</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C38" t="n">
-        <v>412.208680427115</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7202,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2437.610758943565</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2437.610758943565</v>
       </c>
       <c r="V38" t="n">
-        <v>1931.37612766854</v>
+        <v>2437.610758943565</v>
       </c>
       <c r="W38" t="n">
-        <v>1931.37612766854</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.91036940746</v>
+        <v>1711.37634541237</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.771037431648</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7250,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7336,40 +7338,40 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2539.688446000512</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.380258669114</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2312.380258669114</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X40" t="n">
         <v>2022.963088632153</v>
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.441956461044</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C41" t="n">
-        <v>1066.479439520632</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="D41" t="n">
-        <v>1066.479439520632</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500978</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V41" t="n">
-        <v>2212.181128500978</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W41" t="n">
-        <v>2212.181128500978</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X41" t="n">
-        <v>2212.181128500978</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y41" t="n">
-        <v>1822.041796525166</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7497,16 +7499,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610023</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551154</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2149.375138862102</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C44" t="n">
-        <v>1780.41262192169</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>419.0503071710497</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>419.0503071710497</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>419.0503071710497</v>
       </c>
       <c r="G44" t="n">
         <v>207.4089578252748</v>
@@ -7643,10 +7645,10 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y44" t="n">
-        <v>2268.654643287636</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>684.3735766921516</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>684.3735766921516</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415592</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747081</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.6414676374703</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>155.073862206391</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22716,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22793,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9321508152016</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22951,10 +22953,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74592769735798</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.99007165458451</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>53.3000871031237</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>353.8818024461476</v>
       </c>
     </row>
     <row r="9">
@@ -23185,13 +23187,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.99007165458451</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>402.3930806959349</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>37.30951261989674</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>148.3284787396844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>38.46332039683776</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0.9594002052142798</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23947,13 +23949,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>360.6029861082227</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.48572239862751</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>33.2479152232125</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24181,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>359.9128606290117</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>197.3494894312306</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>233.7565992609985</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>98.3275899784953</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>357.6023644347082</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>162.5736422805987</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>3.115350019202509</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>43.64036029338209</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>110.2112513774306</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24698,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>14.15607842565913</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>11.79420836743358</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717194</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>142.4486369548374</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>213.933350362041</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7308230374145</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>296.9337549097975</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.98780970275081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>188.3994869875299</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>266.2036280036793</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>56.25950038248533</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724722</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>200.179492711503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>89.46422057455624</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>49.56792418188218</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>264.6471322822019</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>204.2592341684779</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26080,7 +26082,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>208.8197898846881</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.344109998</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157576</v>
@@ -26323,37 +26325,37 @@
         <v>289152.6100157575</v>
       </c>
       <c r="F2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>289152.6100157577</v>
       </c>
-      <c r="H2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157575</v>
-      </c>
       <c r="K2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157573</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145442</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26454,7 +26456,7 @@
         <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>18228.92756966327</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
         <v>18228.92756966326</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26525,25 +26527,25 @@
         <v>188064.6043826848</v>
       </c>
       <c r="D6" t="n">
-        <v>188064.6043826849</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="E6" t="n">
         <v>221692.2043826848</v>
       </c>
       <c r="F6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="G6" t="n">
-        <v>221692.204382685</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="H6" t="n">
-        <v>221692.204382685</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="I6" t="n">
-        <v>221692.2043826847</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="J6" t="n">
-        <v>45268.98519009184</v>
+        <v>45268.98519009195</v>
       </c>
       <c r="K6" t="n">
         <v>221692.2043826848</v>
@@ -26552,16 +26554,16 @@
         <v>221692.2043826846</v>
       </c>
       <c r="M6" t="n">
-        <v>221692.2043826846</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="N6" t="n">
-        <v>221692.2043826846</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="O6" t="n">
-        <v>221692.204382685</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="P6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826847</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26774,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,40 +31284,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530451</v>
@@ -34954,7 +34956,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.3752747153553</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35902,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36200,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37865,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
